--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\android\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android\Workspace\SocialBusiness\app\src\docs\webservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>Webservice</t>
   </si>
@@ -819,6 +819,142 @@
   </si>
   <si>
     <t>lazy load</t>
+  </si>
+  <si>
+    <t>getSharedPost</t>
+  </si>
+  <si>
+    <t>add isReported: boolean  field as output. If the user reported the post, isReported will be true.</t>
+  </si>
+  <si>
+    <t>add isReported: boolean and isShared:boolean  fields as output. If the user shared the post,
+isShared will be true.</t>
+  </si>
+  <si>
+    <t>getTimeLinePost (getWallPosts)</t>
+  </si>
+  <si>
+    <t>cancel share</t>
+  </si>
+  <si>
+    <t>this not a bug. It is a new webservice</t>
+  </si>
+  <si>
+    <t>input:
+user.id: int
+post.id: int
+output:
+boolean</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/getUserHomeInfo/3/3</t>
+  </si>
+  <si>
+    <r>
+      <t>Now, user.id=3 is frind only with user.id=4 but friend number of user.id=3 are 2
+....
+FriendRequestNumber\":2,\"FollowedBusinessNumber\":2,\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FriendsNumber\":2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>....</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Moreover there is not any friendRequest for user.id = 3 but the FriendRequestNumber is 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FriendRequestNumber\":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,\"FollowedBusinessNumber\":2,\"FriendsNumber\":2
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The FriendsNumber is correct but FriendRequestNumber ir wrong
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"FriendRequestNumber\":1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,\"FollowedBusinessNumber\":0,\"FriendsNumber\":1,\</t>
+    </r>
+  </si>
+  <si>
+    <t>GetUserFriendRequests</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/getUserFriendRequestList/3</t>
+  </si>
+  <si>
+    <t>returns all records in FriendshipRequest table which RequestUserId = 3 not just records
+with ReqStatusId = 3</t>
   </si>
 </sst>
 </file>
@@ -876,7 +1012,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,6 +1043,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -921,7 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,6 +1131,21 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -999,20 +1156,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1295,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1474,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1337,7 +1485,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1494,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1354,20 +1502,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="32"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1375,7 +1523,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1542,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -1403,7 +1551,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
@@ -1413,7 +1561,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
@@ -1422,7 +1570,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1453,7 +1601,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1462,14 +1610,14 @@
         <v>27</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="32"/>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="37"/>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1578,7 +1726,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -1586,7 +1734,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="27" t="s">
         <v>50</v>
       </c>
@@ -1628,7 +1776,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="26" t="s">
@@ -1639,7 +1787,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="36"/>
       <c r="C41" s="26" t="s">
         <v>57</v>
       </c>
@@ -1716,7 +1864,7 @@
       <c r="A50" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="38" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1761,7 +1909,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="22" t="s">
@@ -1772,7 +1920,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="35"/>
       <c r="B58" t="s">
         <v>99</v>
       </c>
@@ -1781,7 +1929,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="35"/>
       <c r="B59" t="s">
         <v>97</v>
       </c>
@@ -1812,7 +1960,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -1823,7 +1971,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="10" t="s">
         <v>93</v>
       </c>
@@ -1878,13 +2026,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="29" t="s">
         <v>110</v>
       </c>
       <c r="D70" s="9"/>
@@ -1897,19 +2045,89 @@
         <v>112</v>
       </c>
     </row>
+    <row r="73" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A77" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="32"/>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B53" r:id="rId1"/>

--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="128">
   <si>
     <t>Webservice</t>
   </si>
@@ -955,6 +955,71 @@
   <si>
     <t>returns all records in FriendshipRequest table which RequestUserId = 3 not just records
 with ReqStatusId = 3</t>
+  </si>
+  <si>
+    <t>check execute once</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>friend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,share,</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1063,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1140,27 +1205,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1443,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1544,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1485,7 +1555,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1564,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1502,20 +1572,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1523,7 +1593,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1542,7 +1612,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -1551,7 +1621,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
@@ -1561,7 +1631,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
@@ -1570,7 +1640,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1601,7 +1671,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1610,14 +1680,14 @@
         <v>27</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="37"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1726,7 +1796,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -1734,7 +1804,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="27" t="s">
         <v>50</v>
       </c>
@@ -1776,7 +1846,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="26" t="s">
@@ -1787,7 +1857,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="C41" s="26" t="s">
         <v>57</v>
       </c>
@@ -1864,7 +1934,7 @@
       <c r="A50" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="32" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1909,7 +1979,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="22" t="s">
@@ -1920,7 +1990,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
+      <c r="A58" s="36"/>
       <c r="B58" t="s">
         <v>99</v>
       </c>
@@ -1929,7 +1999,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+      <c r="A59" s="36"/>
       <c r="B59" t="s">
         <v>97</v>
       </c>
@@ -1960,7 +2030,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -1971,7 +2041,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="10" t="s">
         <v>93</v>
       </c>
@@ -2051,7 +2121,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="33" t="s">
         <v>113</v>
       </c>
       <c r="B74" t="s">
@@ -2062,7 +2132,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B75" t="s">
@@ -2073,7 +2143,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="33" t="s">
         <v>117</v>
       </c>
       <c r="B76" t="s">
@@ -2084,7 +2154,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="34" t="s">
         <v>82</v>
       </c>
       <c r="B77" t="s">
@@ -2095,7 +2165,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
+      <c r="A78" s="34"/>
       <c r="B78" t="s">
         <v>83</v>
       </c>
@@ -2114,13 +2184,18 @@
         <v>125</v>
       </c>
     </row>
+    <row r="80" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
@@ -2128,6 +2203,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B53" r:id="rId1"/>

--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
   <si>
     <t>Webservice</t>
   </si>
@@ -357,10 +357,6 @@
   </si>
   <si>
     <t>Get user's reviews</t>
-  </si>
-  <si>
-    <t>Every review has rate parameter and maybe text parameter.
-Plz add user's rate of the review as return parameter</t>
   </si>
   <si>
     <t>Checking exsiting records</t>
@@ -1019,6 +1015,57 @@
         <scheme val="minor"/>
       </rPr>
       <t>,share,</t>
+    </r>
+  </si>
+  <si>
+    <t>getTimeLinePosts</t>
+  </si>
+  <si>
+    <t>getSharePost</t>
+  </si>
+  <si>
+    <t>Add these fields to the output: 
+isLiked: boolean
+isReported: boolean</t>
+  </si>
+  <si>
+    <t>Add these fields to the output: 
+isLiked: boolean
+isReported: boolean
+isShared: boolean</t>
+  </si>
+  <si>
+    <t>returns the comment wrote by the user himself</t>
+  </si>
+  <si>
+    <t>Get last comment notification</t>
+  </si>
+  <si>
+    <t>Error 08
+rate table and review table should be integrated!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Every review has rate parameter and maybe text parameter.
+Plz add user's rate of the review as return parameter.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+rate table and review table should be integrated!</t>
     </r>
   </si>
 </sst>
@@ -1211,26 +1258,26 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1513,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1591,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1555,7 +1602,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1611,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1572,20 +1619,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="38"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1593,7 +1640,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="38"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1612,7 +1659,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="38" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -1621,7 +1668,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
@@ -1631,7 +1678,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
@@ -1640,7 +1687,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1671,7 +1718,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1680,14 +1727,14 @@
         <v>27</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="38"/>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="38"/>
+      <c r="C23" s="37"/>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1796,7 +1843,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -1804,7 +1851,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="27" t="s">
         <v>50</v>
       </c>
@@ -1846,7 +1893,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="26" t="s">
@@ -1857,7 +1904,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="42"/>
       <c r="C41" s="26" t="s">
         <v>57</v>
       </c>
@@ -1870,7 +1917,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1908,7 +1955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>72</v>
       </c>
@@ -1916,61 +1963,61 @@
         <v>42</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>77</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="C53" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1979,32 +2026,32 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
+      <c r="A58" s="41"/>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
+      <c r="A59" s="41"/>
       <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2012,10 +2059,10 @@
         <v>24</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="285" x14ac:dyDescent="0.25">
@@ -2023,30 +2070,30 @@
         <v>63</v>
       </c>
       <c r="B61" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2054,10 +2101,10 @@
         <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -2065,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2073,46 +2120,46 @@
         <v>42057</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
         <v>103</v>
       </c>
-      <c r="B68" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
+      <c r="C68" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="B69" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="C70" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
         <v>111</v>
-      </c>
-      <c r="B71" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2122,80 +2169,120 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
         <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
         <v>117</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="10" t="s">
+    </row>
+    <row r="77" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A77" s="34" t="s">
+      <c r="C77" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" t="s">
         <v>82</v>
       </c>
-      <c r="B77" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s">
         <v>123</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="10" t="s">
+    </row>
+    <row r="80" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="36" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
+      <c r="B80" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+    </row>
+    <row r="82" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>42059</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
+      <c r="B84" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
@@ -2203,11 +2290,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B53" r:id="rId1"/>

--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -1562,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>

--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
   <si>
     <t>Webservice</t>
   </si>
@@ -357,19 +357,6 @@
   </si>
   <si>
     <t>Get user's reviews</t>
-  </si>
-  <si>
-    <t>Checking exsiting records</t>
-  </si>
-  <si>
-    <t>Like post</t>
-  </si>
-  <si>
-    <t>It is possible to like a post many times by executing Like webservice while it is assumed user once can like a post. We have to check it, but
-you should check it too. Before insert new record in Like table, check existing records</t>
-  </si>
-  <si>
-    <t>Get User share posts</t>
   </si>
   <si>
     <t>Error 08</t>
@@ -677,14 +664,6 @@
     <t>http://185.55.226.223:8081/bsn/getBusinessProfileInfo/2</t>
   </si>
   <si>
-    <t xml:space="preserve">Input is supposed to be like this:
-work_time_open: String
-work_time_close: String
-I don't remember I said input should be like "8 or 22 ". I said "String". I didn't 
-specify the fromat of "String"!
-</t>
-  </si>
-  <si>
     <t>http://185.55.226.223:8081/bsn/getBusinessPosts/3/2013/0/20</t>
   </si>
   <si>
@@ -718,35 +697,6 @@
       </rPr>
       <t xml:space="preserve">
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ErrorCode=Value cannot be null.
-Parameter name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-which one is right, "UserId" or "Id"?
-what is the problem?!
-if the input has a problem, the webservice should mention it in ErrorCode!</t>
     </r>
   </si>
   <si>
@@ -769,16 +719,6 @@
   </si>
   <si>
     <t>http://185.55.226.223:8081/bsn/getBusinessReviews/2013/0/20</t>
-  </si>
-  <si>
-    <t>http://185.55.226.223:8081/bsn/getLastCommentNotification/3</t>
-  </si>
-  <si>
-    <t>getLastCommentNotification</t>
-  </si>
-  <si>
-    <t>{"Error":{"ErrorCode":"Parameter is not valid."},"Result":"","SuccessStatus":false}
-(user.id=3 have busienss.id=2 which have posts with comment)</t>
   </si>
   <si>
     <t>Get post</t>
@@ -814,9 +754,6 @@
     <t>Get Block</t>
   </si>
   <si>
-    <t>lazy load</t>
-  </si>
-  <si>
     <t>getSharedPost</t>
   </si>
   <si>
@@ -917,32 +854,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The FriendsNumber is correct but FriendRequestNumber ir wrong
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"FriendRequestNumber\":1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,\"FollowedBusinessNumber\":0,\"FriendsNumber\":1,\</t>
-    </r>
-  </si>
-  <si>
     <t>GetUserFriendRequests</t>
   </si>
   <si>
@@ -956,93 +867,7 @@
     <t>check execute once</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>friend</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,share,</t>
-    </r>
-  </si>
-  <si>
-    <t>getTimeLinePosts</t>
-  </si>
-  <si>
-    <t>getSharePost</t>
-  </si>
-  <si>
-    <t>Add these fields to the output: 
-isLiked: boolean
-isReported: boolean</t>
-  </si>
-  <si>
-    <t>Add these fields to the output: 
-isLiked: boolean
-isReported: boolean
-isShared: boolean</t>
-  </si>
-  <si>
-    <t>returns the comment wrote by the user himself</t>
-  </si>
-  <si>
     <t>Get last comment notification</t>
-  </si>
-  <si>
-    <t>Error 08
-rate table and review table should be integrated!</t>
   </si>
   <si>
     <r>
@@ -1067,6 +892,176 @@
       <t xml:space="preserve">
 rate table and review table should be integrated!</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>ErrorCode=Value cannot be null.
+Parameter name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+which one is right, "UserId" or "Id"?
+what is the problem?!
+if the input has a problem, the webservice should mention it in ErrorCode!
+It delete previous picture but insert null new one!</t>
+    </r>
+  </si>
+  <si>
+    <t>getBusinessContactInfo</t>
+  </si>
+  <si>
+    <t>input:
+business.id: int
+output:
+langitude: float
+longitude: float
+work_time_open: String (in "dd:dd" format)
+work_time_close: String
+website: String
+email: String
+phone: String
+mobile: String</t>
+  </si>
+  <si>
+    <t>getBusinessPosts</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/getBusinessPosts/1015/2015/0/20</t>
+  </si>
+  <si>
+    <r>
+      <t>returns creationDate as wrong value
+{"Error":{"ErrorCode":null},"Result":"[{\"UserId\":1015,\"BusinessId\":0,\"CommentNumber\":0,\"LikeNumber\":0,\"ShareNumber\":0,\"UserName\":\"kvhtest1\",\"PostId\":51,\"Title\":\"کابل اندروید\",\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreationDate\":\"0\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",\"PostPictureId\":2122,\"Code\":\"20000\",\"Price\":\"2000\",\"Comments\":\"[]\",\"Description\":\"کابل توپپپپ خیلی خووووووووووووووووووووووووووووووب بخر پشیمون نمیشی #پشیمون #کابل \",\"IsLiked\":false,\"HashTagList\":\"پشیمون,کابل\"},{\"UserId\":1015,\"BusinessId\":0,\"CommentNumber\":0,\"LikeNumber\":0,\"ShareNumber\":0,\"UserName\":\"kvhtest1\",\"PostId\":50,\"Title\":\"موبایل\",\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreationDate\":\"1\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,\"PostPictureId\":2121,\"Code\":\"کد 123\",\"Price\":\"1000\",\"Comments\":\"[]\",\"Description\":\"موبایل خووووب #موبایل #ارزون \",\"IsLiked\":false,\"HashTagList\":\"موبایل,ارزون\"}]","SuccessStatus":true}</t>
+    </r>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Resolved before.</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>توافق شد که وب سرویس getUserReview مشابه وب سرویس
+getBusinessReview باشد و فیلد rate را به عنوان خروجی باز گرداند</t>
+  </si>
+  <si>
+    <t>rate,block,friend,share,like,report,likeReview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input is supposed to be like this:
+work_time_open: String
+work_time_close: String
+I don't remember I said input should be like "8 or 22 ". I said "String". I didn't 
+specify the fromat of "String"!
+Dd:dd
+</t>
+  </si>
+  <si>
+    <t>Error 08
+It should update rate table too.</t>
+  </si>
+  <si>
+    <t>Similar with GetBusinessPosts</t>
+  </si>
+  <si>
+    <t>add two fields:
+before_this_id: int
+limitation: int</t>
+  </si>
+  <si>
+    <t>User.id=3 has not any friend request</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The FriendsNumber is correct but FriendRequestNumber is wrong
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"FriendRequestNumber\":1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,\"FollowedBusinessNumber\":0,\"FriendsNumber\":1,\</t>
+    </r>
+  </si>
+  <si>
+    <t>check last comment: if last comment.userId = user.id : don't return and return previous comment</t>
+  </si>
+  <si>
+    <t>creation date is duration in hours.</t>
   </si>
 </sst>
 </file>
@@ -1139,12 +1134,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1158,6 +1147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1212,16 +1207,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1240,22 +1226,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1263,21 +1246,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1560,18 +1552,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" customWidth="1"/>
-    <col min="3" max="3" width="84.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1591,7 +1584,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1602,7 +1595,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1604,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1619,20 +1612,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="33"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1640,7 +1633,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="33"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1659,7 +1652,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -1668,7 +1661,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
@@ -1678,7 +1671,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
@@ -1687,7 +1680,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1793,7 +1786,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1826,126 +1819,129 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:5" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:5" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="27" t="s">
+    <row r="36" spans="1:5" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:5" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+    <row r="38" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+    <row r="39" spans="1:5" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+    <row r="40" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="C41" s="26" t="s">
+    <row r="41" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="C41" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="26" customFormat="1" ht="330" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:5" s="23" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="C42" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-    </row>
-    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>42053</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
@@ -1954,335 +1950,352 @@
       <c r="C47" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="40" t="s">
         <v>72</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="C49" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="32" t="s">
-        <v>77</v>
+      <c r="C50" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>42056</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A61" s="34"/>
+      <c r="B61" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>42057</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
-        <v>42056</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
-        <v>42057</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="B74" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="33"/>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+    </row>
+    <row r="78" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+    </row>
+    <row r="79" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+    </row>
+    <row r="80" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="41"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="41"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+    </row>
+    <row r="84" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>42059</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <v>42060</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
-        <v>42058</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C88" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="10" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="B89" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="C89" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B79" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-    </row>
-    <row r="82" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
-        <v>42059</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>131</v>
+      <c r="D89" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
@@ -2290,11 +2303,18 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B53" r:id="rId1"/>
+    <hyperlink ref="B51" r:id="rId1"/>
+    <hyperlink ref="B56" r:id="rId2"/>
+    <hyperlink ref="B74" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>Webservice</t>
   </si>
@@ -1045,6 +1045,12 @@
   </si>
   <si>
     <t>Remove dbo.Rate table and add Rate:int field to the dbo.Review.</t>
+  </si>
+  <si>
+    <t>solved at 2/26/2015</t>
+  </si>
+  <si>
+    <t>resolved at 2/26/2015</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1133,12 +1139,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1153,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1232,9 +1232,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1252,6 +1249,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1533,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1569,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1576,7 +1580,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1589,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1593,20 +1597,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="35"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1614,7 +1618,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1637,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -1642,7 +1646,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
@@ -1652,7 +1656,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
@@ -1661,7 +1665,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1692,7 +1696,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1701,14 +1705,14 @@
         <v>27</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="35"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1817,7 +1821,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="24" t="s">
@@ -1825,7 +1829,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="24" t="s">
         <v>50</v>
       </c>
@@ -1867,7 +1871,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -1878,7 +1882,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="39"/>
       <c r="C41" s="23" t="s">
         <v>57</v>
       </c>
@@ -1936,23 +1940,29 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="D48" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="D49" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -1961,8 +1971,11 @@
       <c r="C50" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D50" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>79</v>
       </c>
@@ -1970,13 +1983,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>42056</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="19" t="s">
@@ -1986,8 +1999,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -1995,8 +2008,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" t="s">
         <v>90</v>
       </c>
@@ -2004,7 +2017,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>24</v>
       </c>
@@ -2015,7 +2028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>63</v>
       </c>
@@ -2026,8 +2039,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
+    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -2037,8 +2050,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
       <c r="B60" s="10" t="s">
         <v>87</v>
       </c>
@@ -2046,7 +2059,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>52</v>
       </c>
@@ -2057,7 +2070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>8</v>
       </c>
@@ -2065,7 +2078,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>42057</v>
       </c>
@@ -2142,7 +2155,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -2156,12 +2169,15 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
+      <c r="A74" s="43"/>
       <c r="B74" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>128</v>
+      </c>
+      <c r="D74" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2176,7 +2192,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="41" t="s">
         <v>113</v>
       </c>
       <c r="B76" s="26" t="s">
@@ -2185,125 +2201,95 @@
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
     </row>
-    <row r="77" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-    </row>
-    <row r="78" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-    </row>
-    <row r="79" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-    </row>
-    <row r="80" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-    </row>
-    <row r="81" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-    </row>
-    <row r="83" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
+    <row r="77" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
         <v>42059</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
+    <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
         <v>42060</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>42061</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="40"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>118</v>
+        <v>133</v>
+      </c>
+      <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="40"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
-        <v>42061</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B91" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B92" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="41"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B93" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="41"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="41"/>
+      <c r="C88" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="C85:C88"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A54:A56"/>

--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
   <si>
     <t>Webservice</t>
   </si>
@@ -989,9 +989,6 @@
     <t>add two fields:
 before_this_id: int
 limitation: int</t>
-  </si>
-  <si>
-    <t>User.id=3 has not any friend request</t>
   </si>
   <si>
     <r>
@@ -1153,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1232,29 +1229,30 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1539,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1567,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1580,7 +1578,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1587,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1597,20 +1595,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="43"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1618,7 +1616,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="43"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1637,7 +1635,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -1646,7 +1644,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
@@ -1656,7 +1654,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
@@ -1665,7 +1663,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1696,7 +1694,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="42" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1705,14 +1703,14 @@
         <v>27</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1821,7 +1819,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="24" t="s">
@@ -1829,7 +1827,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="24" t="s">
         <v>50</v>
       </c>
@@ -1871,7 +1869,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -1882,7 +1880,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="41"/>
       <c r="C41" s="23" t="s">
         <v>57</v>
       </c>
@@ -1946,8 +1944,8 @@
       <c r="C48" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="42" t="s">
-        <v>138</v>
+      <c r="D48" s="36" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,8 +1955,8 @@
       <c r="C49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="42" t="s">
-        <v>138</v>
+      <c r="D49" s="36" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,8 +1969,8 @@
       <c r="C50" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="42" t="s">
-        <v>138</v>
+      <c r="D50" s="36" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1989,7 +1987,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="40" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="19" t="s">
@@ -2000,7 +1998,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -2009,7 +2007,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+      <c r="A56" s="40"/>
       <c r="B56" t="s">
         <v>90</v>
       </c>
@@ -2040,7 +2038,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -2051,7 +2049,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="10" t="s">
         <v>87</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>104</v>
       </c>
@@ -2155,7 +2153,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="38" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -2164,23 +2162,23 @@
       <c r="C73" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D73" t="s">
-        <v>127</v>
+      <c r="D73" s="34" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
+      <c r="A74" s="38"/>
       <c r="B74" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>110</v>
       </c>
@@ -2192,14 +2190,16 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>123</v>
       </c>
       <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="D76" s="34" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="77" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2211,7 +2211,7 @@
         <v>114</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2241,7 +2241,7 @@
         <v>120</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2251,50 +2251,44 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="40"/>
+        <v>134</v>
+      </c>
+      <c r="C86" s="37"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" s="40"/>
+        <v>135</v>
+      </c>
+      <c r="C87" s="37"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="40"/>
+        <v>135</v>
+      </c>
+      <c r="C88" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
@@ -2302,6 +2296,12 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1"/>

--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
   <si>
     <t>Webservice</t>
   </si>
@@ -1048,6 +1048,79 @@
   </si>
   <si>
     <t>resolved at 2/26/2015</t>
+  </si>
+  <si>
+    <t>SearchBusinessesLocation</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/searchBusinessByLocation/lwrq/0///0/20</t>
+  </si>
+  <si>
+    <t>If gps is off or gps get nothing, the webservice thould returns  the result apart from gps location.</t>
+  </si>
+  <si>
+    <t>GetUserSharedPosts</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/getUserSharedPosts/3/0/20</t>
+  </si>
+  <si>
+    <r>
+      <t>LikeNumber is 0 but IsLiked it true while there is no record in
+dbo.Like table with user.id=3 and post.id=10
+[{\"PostId\":10,\"CommentNumber\":2,\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LikeNumber\":0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+\"ShareNumber\":1,\"BusinessId\":1,\"BusinessUserName\"
+\"dkad\",\"CreationDate\":\"-3707\",\"Title\":\"sample Title\",\"PostPictureId\":2047,\"BusinessProfilePictureId\"
+:2022,\"Code\":\"کد محصول\",\"Description\":\"a sample post\"
+,\"Price\":\"100011\",\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IsLiked\":true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,\"</t>
+    </r>
+  </si>
+  <si>
+    <t>GetBusinessProfileInfo</t>
+  </si>
+  <si>
+    <t>wrong workTime
+"WorkDays=5,6,7" while it should be "4,5,6"</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,6 +1307,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1535,16 +1609,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A93" activeCellId="1" sqref="A92:XFD92 A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
     <col min="3" max="3" width="57.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
@@ -1567,7 +1641,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1578,7 +1652,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1661,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1595,20 +1669,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="45"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1616,7 +1690,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1635,7 +1709,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -1644,7 +1718,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
@@ -1654,7 +1728,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
@@ -1663,7 +1737,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1694,7 +1768,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1703,14 +1777,14 @@
         <v>27</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="42"/>
+      <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1819,7 +1893,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="24" t="s">
@@ -1827,7 +1901,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="24" t="s">
         <v>50</v>
       </c>
@@ -1869,7 +1943,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -1880,7 +1954,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
       <c r="C41" s="23" t="s">
         <v>57</v>
       </c>
@@ -1987,7 +2061,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="19" t="s">
@@ -1998,7 +2072,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -2007,7 +2081,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+      <c r="A56" s="41"/>
       <c r="B56" t="s">
         <v>90</v>
       </c>
@@ -2026,7 +2100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>63</v>
       </c>
@@ -2038,7 +2112,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -2049,7 +2123,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="10" t="s">
         <v>87</v>
       </c>
@@ -2153,7 +2227,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -2167,7 +2241,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+      <c r="A74" s="39"/>
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -2256,7 +2330,7 @@
       <c r="B85" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="38" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2267,7 +2341,7 @@
       <c r="B86" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="37"/>
+      <c r="C86" s="38"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
@@ -2276,7 +2350,7 @@
       <c r="B87" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="37"/>
+      <c r="C87" s="38"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
@@ -2285,7 +2359,45 @@
       <c r="B88" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="37"/>
+      <c r="C88" s="38"/>
+    </row>
+    <row r="90" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2307,8 +2419,9 @@
     <hyperlink ref="B50" r:id="rId1"/>
     <hyperlink ref="B55" r:id="rId2"/>
     <hyperlink ref="B73" r:id="rId3"/>
+    <hyperlink ref="B93" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="152">
   <si>
     <t>Webservice</t>
   </si>
@@ -1121,6 +1121,21 @@
   <si>
     <t>wrong workTime
 "WorkDays=5,6,7" while it should be "4,5,6"</t>
+  </si>
+  <si>
+    <t>Kvh: Mr. Hosseini said I will do that later</t>
+  </si>
+  <si>
+    <t>GetBlockedUsers</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/getBlockedUsersList/2</t>
+  </si>
+  <si>
+    <t>Endpoint not found.</t>
+  </si>
+  <si>
+    <t>solved at 3/1/2015</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,9 +1284,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,21 +1324,25 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1609,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A93" activeCellId="1" sqref="A92:XFD92 A93:XFD93"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,7 +1657,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1652,7 +1668,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1661,7 +1677,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1669,20 +1685,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="40"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1690,7 +1706,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="40"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1709,7 +1725,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -1718,7 +1734,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
@@ -1728,7 +1744,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
@@ -1737,7 +1753,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1768,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="39" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1777,14 +1793,14 @@
         <v>27</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="43"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="43"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1876,110 +1892,110 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:4" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="24" t="s">
+    <row r="36" spans="1:4" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+    <row r="38" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+    <row r="40" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="C41" s="23" t="s">
+    <row r="41" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="C41" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="23" customFormat="1" ht="330" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:4" s="22" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+    <row r="44" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
@@ -1987,7 +2003,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -1998,7 +2014,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
@@ -2012,29 +2028,29 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="32" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="35" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="35" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -2043,16 +2059,19 @@
       <c r="C50" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="35" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>80</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2061,7 +2080,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="45" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="19" t="s">
@@ -2072,7 +2091,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -2081,7 +2100,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="45"/>
       <c r="B56" t="s">
         <v>90</v>
       </c>
@@ -2112,7 +2131,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -2123,7 +2142,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="10" t="s">
         <v>87</v>
       </c>
@@ -2156,7 +2175,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B65" t="s">
@@ -2165,15 +2184,18 @@
       <c r="C65" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="D65" s="35" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="25" t="s">
         <v>99</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -2194,7 +2216,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B70" t="s">
@@ -2205,7 +2227,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B71" t="s">
@@ -2216,7 +2238,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="38" t="s">
         <v>105</v>
       </c>
       <c r="B72" t="s">
@@ -2227,7 +2249,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -2236,12 +2258,12 @@
       <c r="C73" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="43"/>
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -2256,22 +2278,22 @@
       <c r="A75" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
+    <row r="76" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="34" t="s">
+      <c r="C76" s="30"/>
+      <c r="D76" s="33" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2281,7 +2303,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="31" t="s">
         <v>114</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -2294,7 +2316,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="28" t="s">
         <v>116</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -2324,42 +2346,42 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="28" t="s">
         <v>130</v>
       </c>
       <c r="B85" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="42" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B86" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="38"/>
+      <c r="C86" s="42"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="28" t="s">
         <v>132</v>
       </c>
       <c r="B87" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="38"/>
+      <c r="C87" s="42"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B88" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="38"/>
+      <c r="C88" s="42"/>
     </row>
     <row r="90" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
@@ -2367,21 +2389,24 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="36" t="s">
         <v>140</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>141</v>
+      </c>
+      <c r="D91" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B92" s="36" t="s">
         <v>143</v>
       </c>
       <c r="C92" s="10" t="s">
@@ -2392,15 +2417,37 @@
       <c r="A93" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="37" t="s">
         <v>89</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>146</v>
       </c>
     </row>
+    <row r="95" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <v>42066</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
@@ -2408,18 +2455,12 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1"/>
     <hyperlink ref="B55" r:id="rId2"/>
     <hyperlink ref="B73" r:id="rId3"/>
-    <hyperlink ref="B93" r:id="rId4"/>
+    <hyperlink ref="B75" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="148">
   <si>
     <t>Webservice</t>
   </si>
@@ -410,124 +410,6 @@
   <si>
     <t>input:
 http://185.55.226.223:8081/bsn/getBusinessPosts/3/2/0/20</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-output:
-….
-{
-....
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"PostId":38,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-....
-}
-comments of this posts:
-[
-{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\"CommentId\":6,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-\"UserId\":1014,
-\"UserName\":\"Sina KH\",
-\"Text\":\"جالبه\",
-\"ProfilePictureId\":2073
-},
-{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\"CommentId\":8,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-\"UserId\":1014,
-\"UserName\":\"Sina KH\",
-\"Text\":\"هااای\",
-\"ProfilePictureId\":2073
-},
-{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\"CommentId\":7,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-\"UserId\":1014,
-\"UserName\":\"Sina KH\",
-\"Text\":\"سلاااام\",
-\"ProfilePictureId\":2073
-}
-]"
-while post.id=38 has 2 comments (id=7 &amp; id=8)
-</t>
-    </r>
   </si>
   <si>
     <t>{"Picture":"","HashTagList":"hash1,hash2","Description":"update بببب","PostId":"38","Code":"aaa","Title":"watch1","Price":"50000"}</t>
@@ -629,32 +511,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>:"3","ProfilePicture":"","BirthDate":"1393/02/12","AboutMe":"aboout","Sex":"female"}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{"LocationLongitude":"51.3911837339401","Phone":"555555555","Description":"ddddddddddd","HashTagList":"","CoverPicture":"","WorkTimeClose":"1259","WorkDays":"4,5,6,"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"ProfilePicture":"\/9j....",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"City":"","Name":"ddddddddd","Category":"cloth","Email":"sd@xxx.com","State":"","Address":"","SubCategory":"men cloth","Mobile":"11111111","LocationLatitude":"35.6975323181562","WorkTimeOpen":"1259"}</t>
     </r>
   </si>
   <si>
@@ -721,44 +577,10 @@
     <t>Get post</t>
   </si>
   <si>
-    <t>this is not a bug. It is a new webservice. I discussed about this webservice
-with Mr. Aghili, later I told him don't implement this one. Now, I don't
-Mr. Aghili implemented it or not!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input:
-user.id: int
-post.id: int
-output:
-    business.id: int
-    business_id: String
-    business_profile_picture_name:String (small)
-    business_profile_picture.id: int
-    creation_date: String (MM/DD/YYYY)
-    title: String
-    picture_medium_name: String (medium)
-    picture_medium.id: int
-    picture_large_name: String (large)
-    picture_large.id: int
-    description: String
-    price: String
-    code: String
-    is_liked: boolean
-    hashtag_list: list:{String}
-</t>
-  </si>
-  <si>
     <t>Get Block</t>
   </si>
   <si>
     <t>getSharedPost</t>
-  </si>
-  <si>
-    <t>add isReported: boolean  field as output. If the user reported the post, isReported will be true.</t>
-  </si>
-  <si>
-    <t>add isReported: boolean and isShared:boolean  fields as output. If the user shared the post,
-isShared will be true.</t>
   </si>
   <si>
     <t>getTimeLinePost (getWallPosts)</t>
@@ -968,42 +790,435 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Resolved before.</t>
-  </si>
-  <si>
     <t>rate,block,friend,share,like,report,likeReview</t>
   </si>
   <si>
-    <t xml:space="preserve">Input is supposed to be like this:
+    <t>add two fields:
+before_this_id: int
+limitation: int</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The FriendsNumber is correct but FriendRequestNumber is wrong
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"FriendRequestNumber\":1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,\"FollowedBusinessNumber\":0,\"FriendsNumber\":1,\</t>
+    </r>
+  </si>
+  <si>
+    <t>check last comment: if last comment.userId = user.id : don't return and return previous comment</t>
+  </si>
+  <si>
+    <t>GetBusinessReviews</t>
+  </si>
+  <si>
+    <t>GetUserReviews</t>
+  </si>
+  <si>
+    <t>ReviewBusiness</t>
+  </si>
+  <si>
+    <t>UpdateReview</t>
+  </si>
+  <si>
+    <t>Add rate:int as output</t>
+  </si>
+  <si>
+    <t>Remove dbo.Rate table and add Rate:int field to the dbo.Review.</t>
+  </si>
+  <si>
+    <t>solved at 2/26/2015</t>
+  </si>
+  <si>
+    <t>GetUserSharedPosts</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/getUserSharedPosts/3/0/20</t>
+  </si>
+  <si>
+    <t>GetBusinessProfileInfo</t>
+  </si>
+  <si>
+    <t>solved at 3/1/2015</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The number of post's comments is not equal with the number
+of the post in result.
+It should returns last three comments
+output:
+….
+{
+....
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"PostId":38,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+....
+}
+comments of this posts:
+[
+{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\"CommentId\":6,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+\"UserId\":1014,
+\"UserName\":\"Sina KH\",
+\"Text\":\"جالبه\",
+\"ProfilePictureId\":2073
+},
+{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\"CommentId\":8,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+\"UserId\":1014,
+\"UserName\":\"Sina KH\",
+\"Text\":\"هااای\",
+\"ProfilePictureId\":2073
+},
+{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\"CommentId\":7,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+\"UserId\":1014,
+\"UserName\":\"Sina KH\",
+\"Text\":\"سلاااام\",
+\"ProfilePictureId\":2073
+}
+]"
+while post.id=38 has 2 comments (id=7 &amp; id=8)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Solved at 3/3/2012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It shouldn't returns ProfilePicture as string, it should be int
+{"LocationLongitude":"51.3911837339401","Phone":"555555555","Description":"ddddddddddd","HashTagList":"","CoverPicture":"","WorkTimeClose":"1259","WorkDays":"4,5,6,"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"ProfilePicture":"\/9j....",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"City":"","Name":"ddddddddd","Category":"cloth","Email":"sd@xxx.com","State":"","Address":"","SubCategory":"men cloth","Mobile":"11111111","LocationLatitude":"35.6975323181562","WorkTimeOpen":"1259"}</t>
+    </r>
+  </si>
+  <si>
+    <t>insert 0 for workTimeClose and workTimeOpen</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/getUserPost/3/4</t>
+  </si>
+  <si>
+    <t>Endpoint Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://185.55.226.223:8081/bsn/getWallPosts/3/0/20
+</t>
+  </si>
+  <si>
+    <t>solved at 3/3/2015</t>
+  </si>
+  <si>
+    <t>solved before.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add rate:int as input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+check existing records to avoid the user to review a business more than once</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wrong workTime
+existing workDays: 4,5,7
+returned wordDays:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"WorkDays\":\"5,6,7\"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Input is supposed to be like this:
 work_time_open: String
 work_time_close: String
 I don't remember I said input should be like "8 or 22 ". I said "String". I didn't 
 specify the fromat of "String"!
-Dd:dd
+Dd:dd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Similar with GetBusinessPosts</t>
-  </si>
-  <si>
-    <t>add two fields:
-before_this_id: int
-limitation: int</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The FriendsNumber is correct but FriendRequestNumber is wrong
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user.id = 3 is friend with user.id=4
+user.id=4 has a business: business.id=2013
+buisness.id=2013 has 3 posts:
+post.id=29
+post.id=30
+post.id=31
+but getWallPosts return empty result.
+I can't test this webservice
+{"Error":{"ErrorCode":null},"Result":"[]","SuccessStatus":true}
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this not a bug. It is a new change:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add isReported: boolean and isShared:boolean  fields as output. If the user shared the post,
+isShared will be true.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add rate:int as output
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Doesn't return the rate as output
+http://185.55.226.223:8081/bsn/getUserReviews/3/0/20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add rate:int as input
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Doesn't update the rate value
+http://185.55.226.223:8081/bsn/updateReview/4/3/kkkkk/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LikeNumber is 0 but IsLiked is true. The LikeNumber is correct but
+IsLiked is not!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"FriendRequestNumber\":1</t>
+      <t>"LikeNumber\":0,\"…
+"IsLiked\":true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There is no IsReported field!</t>
     </r>
     <r>
       <rPr>
@@ -1013,129 +1228,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,\"FollowedBusinessNumber\":0,\"FriendsNumber\":1,\</t>
-    </r>
-  </si>
-  <si>
-    <t>check last comment: if last comment.userId = user.id : don't return and return previous comment</t>
-  </si>
-  <si>
-    <t>creation date is duration in hours.</t>
-  </si>
-  <si>
-    <t>GetBusinessReviews</t>
-  </si>
-  <si>
-    <t>GetUserReviews</t>
-  </si>
-  <si>
-    <t>ReviewBusiness</t>
-  </si>
-  <si>
-    <t>UpdateReview</t>
-  </si>
-  <si>
-    <t>Add rate:int as output</t>
-  </si>
-  <si>
-    <t>Add rate:int as input</t>
-  </si>
-  <si>
-    <t>Remove dbo.Rate table and add Rate:int field to the dbo.Review.</t>
-  </si>
-  <si>
-    <t>solved at 2/26/2015</t>
-  </si>
-  <si>
-    <t>resolved at 2/26/2015</t>
-  </si>
-  <si>
-    <t>SearchBusinessesLocation</t>
-  </si>
-  <si>
-    <t>http://185.55.226.223:8081/bsn/searchBusinessByLocation/lwrq/0///0/20</t>
-  </si>
-  <si>
-    <t>If gps is off or gps get nothing, the webservice thould returns  the result apart from gps location.</t>
-  </si>
-  <si>
-    <t>GetUserSharedPosts</t>
-  </si>
-  <si>
-    <t>http://185.55.226.223:8081/bsn/getUserSharedPosts/3/0/20</t>
-  </si>
-  <si>
-    <r>
-      <t>LikeNumber is 0 but IsLiked it true while there is no record in
-dbo.Like table with user.id=3 and post.id=10
-[{\"PostId\":10,\"CommentNumber\":2,\"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LikeNumber\":0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-\"ShareNumber\":1,\"BusinessId\":1,\"BusinessUserName\"
-\"dkad\",\"CreationDate\":\"-3707\",\"Title\":\"sample Title\",\"PostPictureId\":2047,\"BusinessProfilePictureId\"
-:2022,\"Code\":\"کد محصول\",\"Description\":\"a sample post\"
-,\"Price\":\"100011\",\"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IsLiked\":true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,\"</t>
-    </r>
-  </si>
-  <si>
-    <t>GetBusinessProfileInfo</t>
-  </si>
-  <si>
-    <t>wrong workTime
-"WorkDays=5,6,7" while it should be "4,5,6"</t>
-  </si>
-  <si>
-    <t>Kvh: Mr. Hosseini said I will do that later</t>
-  </si>
-  <si>
-    <t>GetBlockedUsers</t>
-  </si>
-  <si>
-    <t>http://185.55.226.223:8081/bsn/getBlockedUsersList/2</t>
-  </si>
-  <si>
-    <t>Endpoint not found.</t>
-  </si>
-  <si>
-    <t>solved at 3/1/2015</t>
+      <t xml:space="preserve">
+{"Error":{"ErrorCode":null},"Result":"[{\"PostId\":10,\"CommentNumber\":3,\"LikeNumber\":0,\"ShareNumber\":1,\"BusinessId\":1,\"BusinessUserName\":\"dkad\",\"CreationDate\":\"-3639\",\"Title\":\"sample Title\",\"PostPictureId\":2047,\"BusinessProfilePictureId\":2022,\"Code\":\"کد محصول\",\"Description\":\"a sample post\",\"Price\":\"100011\",\"IsLiked\":true,\"HashTagList\":\"tag,tag2\",\"Comments\":\"[{\\\"CommentId\\\":43,\\\"UserId\\\":3,\\\"UserName\\\":\\\"sss\\\",\\\"Text\\\":\\\"توووووپ\\\",\\\"ProfilePictureId\\\":2022},{\\\"CommentId\\\":41,\\\"UserId\\\":4,\\\"UserName\\\":\\\"ssssss\\\",\\\"Text\\\":\\\"kghdbv\\\",\\\"ProfilePictureId\\\":2026},{\\\"CommentId\\\":40,\\\"UserId\\\":3,\\\"UserName\\\":\\\"sss\\\",\\\"Text\\\":\\\"salam\\\",\\\"ProfilePictureId\\\":2022}]\"}]","SuccessStatus":true}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1193,7 +1288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,13 +1309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,7 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1262,87 +1363,107 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1625,23 +1746,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="25" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
     <col min="3" max="3" width="57.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="33" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1650,14 +1771,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="26">
         <v>42050</v>
       </c>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1666,153 +1789,173 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="47"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D10" s="37"/>
     </row>
     <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="27" t="s">
         <v>17</v>
       </c>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="39" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="25"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="28">
         <v>42051</v>
       </c>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="25"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="46" t="s">
         <v>29</v>
       </c>
+      <c r="D21" s="39"/>
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="39"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="39"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1821,12 +1964,12 @@
       <c r="C25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1835,9 +1978,10 @@
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1846,9 +1990,10 @@
       <c r="C27" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="1:4" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1857,9 +2002,10 @@
       <c r="C28" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1869,8 +2015,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1879,7 +2025,7 @@
       <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="33" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1888,119 +2034,133 @@
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="28">
         <v>42052</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="1:4" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="D34" s="41"/>
+    </row>
+    <row r="35" spans="1:4" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="23" t="s">
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="1:4" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="B36" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" spans="1:4" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="D38" s="41"/>
+    </row>
+    <row r="39" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="D39" s="41"/>
+    </row>
+    <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="C41" s="22" t="s">
+      <c r="D40" s="41"/>
+    </row>
+    <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="C41" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="22" customFormat="1" ht="330" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4" s="15" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="C42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="41"/>
+    </row>
+    <row r="43" spans="1:4" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="D44" s="41"/>
     </row>
     <row r="45" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="28">
         <v>42053</v>
       </c>
+      <c r="D45" s="38"/>
     </row>
     <row r="46" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
@@ -2009,8 +2169,8 @@
       <c r="C46" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D46" t="s">
-        <v>121</v>
+      <c r="D46" s="33" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,8 +2183,8 @@
       <c r="C47" t="s">
         <v>70</v>
       </c>
-      <c r="D47" t="s">
-        <v>122</v>
+      <c r="D47" s="33" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,8 +2194,8 @@
       <c r="C48" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>137</v>
+      <c r="D48" s="42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,407 +2205,400 @@
       <c r="C49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>137</v>
+      <c r="D50" s="42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="D51" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28">
         <v>42056</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
+      <c r="D52" s="38"/>
+    </row>
+    <row r="53" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B53" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C53" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+      <c r="B54" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>24</v>
+      <c r="C56" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="285" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>63</v>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
+        <v>4</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>4</v>
-      </c>
+      <c r="C58" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="51"/>
       <c r="B59" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28">
+        <v>42057</v>
+      </c>
+      <c r="D62" s="38"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="10" t="s">
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="39"/>
+    </row>
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
+        <v>42058</v>
+      </c>
+      <c r="D66" s="38"/>
+    </row>
+    <row r="67" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A67" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A70" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="50"/>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="28">
+        <v>42059</v>
+      </c>
+      <c r="D74" s="38"/>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28">
+        <v>42060</v>
+      </c>
+      <c r="D76" s="38"/>
+    </row>
+    <row r="77" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A77" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A78" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28">
+        <v>42061</v>
+      </c>
+      <c r="D79" s="38"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="49"/>
+    </row>
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="49"/>
+    </row>
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="49"/>
+    </row>
+    <row r="84" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28">
+        <v>42064</v>
+      </c>
+      <c r="D84" s="38"/>
+    </row>
+    <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
-        <v>42057</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
-        <v>42058</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
-        <v>42059</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
-        <v>42060</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" t="s">
-        <v>119</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
-        <v>42061</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B86" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="42"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" s="42"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B88" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="42"/>
-    </row>
-    <row r="90" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
-        <v>42064</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="D91" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="16">
-        <v>42066</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="C21:C23"/>
@@ -2458,11 +2611,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1"/>
-    <hyperlink ref="B55" r:id="rId2"/>
-    <hyperlink ref="B73" r:id="rId3"/>
-    <hyperlink ref="B75" r:id="rId4"/>
+    <hyperlink ref="B54" r:id="rId2"/>
+    <hyperlink ref="B70" r:id="rId3"/>
+    <hyperlink ref="B72" r:id="rId4"/>
+    <hyperlink ref="B60" r:id="rId5"/>
+    <hyperlink ref="B67" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/app/src/docs/webservices/bugs.xlsx
+++ b/app/src/docs/webservices/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="150">
   <si>
     <t>Webservice</t>
   </si>
@@ -983,40 +983,10 @@
     <t>Solved at 3/3/2012</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">It shouldn't returns ProfilePicture as string, it should be int
-{"LocationLongitude":"51.3911837339401","Phone":"555555555","Description":"ddddddddddd","HashTagList":"","CoverPicture":"","WorkTimeClose":"1259","WorkDays":"4,5,6,"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"ProfilePicture":"\/9j....",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"City":"","Name":"ddddddddd","Category":"cloth","Email":"sd@xxx.com","State":"","Address":"","SubCategory":"men cloth","Mobile":"11111111","LocationLatitude":"35.6975323181562","WorkTimeOpen":"1259"}</t>
-    </r>
-  </si>
-  <si>
     <t>insert 0 for workTimeClose and workTimeOpen</t>
   </si>
   <si>
     <t>http://185.55.226.223:8081/bsn/getUserPost/3/4</t>
-  </si>
-  <si>
-    <t>Endpoint Error</t>
   </si>
   <si>
     <t xml:space="preserve">http://185.55.226.223:8081/bsn/getWallPosts/3/0/20
@@ -1193,23 +1163,133 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There is no IsReported field!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{"Error":{"ErrorCode":null},"Result":"[{\"PostId\":10,\"CommentNumber\":3,\"LikeNumber\":0,\"ShareNumber\":1,\"BusinessId\":1,\"BusinessUserName\":\"dkad\",\"CreationDate\":\"-3639\",\"Title\":\"sample Title\",\"PostPictureId\":2047,\"BusinessProfilePictureId\":2022,\"Code\":\"کد محصول\",\"Description\":\"a sample post\",\"Price\":\"100011\",\"IsLiked\":true,\"HashTagList\":\"tag,tag2\",\"Comments\":\"[{\\\"CommentId\\\":43,\\\"UserId\\\":3,\\\"UserName\\\":\\\"sss\\\",\\\"Text\\\":\\\"توووووپ\\\",\\\"ProfilePictureId\\\":2022},{\\\"CommentId\\\":41,\\\"UserId\\\":4,\\\"UserName\\\":\\\"ssssss\\\",\\\"Text\\\":\\\"kghdbv\\\",\\\"ProfilePictureId\\\":2026},{\\\"CommentId\\\":40,\\\"UserId\\\":3,\\\"UserName\\\":\\\"sss\\\",\\\"Text\\\":\\\"salam\\\",\\\"ProfilePictureId\\\":2022}]\"}]","SuccessStatus":true}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Returns BussinessName as null
+UserName\":\"sss\",\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BusinessName\":null,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\"Title</t>
+    </r>
+  </si>
+  <si>
+    <t>solved at 3/4/2015</t>
+  </si>
+  <si>
+    <t>solved at 3/4/2015
+but new Error is occurred</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">LikeNumber is 0 but IsLiked is true. The LikeNumber is correct but
 IsLiked is not!
+"LikeNumber\":0,\"…
+"IsLiked\":true
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LikeNumber is wrong
+PostId\":10,\"CommentNumber\":3,\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"LikeNumber\":0,\"…
-"IsLiked\":true</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">LikeNumber\":1,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It should be 3 not 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It shouldn't returns ProfilePicture as string, it should be int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+It returns business profile picture id as CoverPicture not
+ProfilePicture. The ProfilePictue should be 2120 not the 
+CoverPicture
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1218,18 +1298,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>There is no IsReported field!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{"Error":{"ErrorCode":null},"Result":"[{\"PostId\":10,\"CommentNumber\":3,\"LikeNumber\":0,\"ShareNumber\":1,\"BusinessId\":1,\"BusinessUserName\":\"dkad\",\"CreationDate\":\"-3639\",\"Title\":\"sample Title\",\"PostPictureId\":2047,\"BusinessProfilePictureId\":2022,\"Code\":\"کد محصول\",\"Description\":\"a sample post\",\"Price\":\"100011\",\"IsLiked\":true,\"HashTagList\":\"tag,tag2\",\"Comments\":\"[{\\\"CommentId\\\":43,\\\"UserId\\\":3,\\\"UserName\\\":\\\"sss\\\",\\\"Text\\\":\\\"توووووپ\\\",\\\"ProfilePictureId\\\":2022},{\\\"CommentId\\\":41,\\\"UserId\\\":4,\\\"UserName\\\":\\\"ssssss\\\",\\\"Text\\\":\\\"kghdbv\\\",\\\"ProfilePictureId\\\":2026},{\\\"CommentId\\\":40,\\\"UserId\\\":3,\\\"UserName\\\":\\\"sss\\\",\\\"Text\\\":\\\"salam\\\",\\\"ProfilePictureId\\\":2022}]\"}]","SuccessStatus":true}</t>
+      <t>"ProfilePicture\":\"\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,\"CoverPicture\":\"2120\",
+</t>
     </r>
   </si>
 </sst>
@@ -1237,7 +1317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1283,6 +1363,13 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1339,7 +1426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1374,17 +1461,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1446,6 +1527,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1455,15 +1549,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1748,21 +1838,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
     <col min="3" max="3" width="57.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="29" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1771,16 +1861,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="22">
         <v>42050</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1789,173 +1879,173 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="21"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="24">
         <v>42051</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="21"/>
+      <c r="D20" s="35"/>
     </row>
     <row r="21" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="35"/>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="39"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="35"/>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="35"/>
     </row>
     <row r="25" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1964,12 +2054,12 @@
       <c r="C25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1978,10 +2068,10 @@
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="35"/>
     </row>
     <row r="27" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1990,10 +2080,10 @@
       <c r="C27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2002,10 +2092,10 @@
       <c r="C28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2016,7 +2106,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2025,7 +2115,7 @@
       <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="29" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2034,50 +2124,50 @@
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="24">
         <v>42052</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="41"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="26" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -2086,10 +2176,10 @@
       <c r="C37" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -2098,10 +2188,10 @@
       <c r="C38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -2110,10 +2200,10 @@
       <c r="C39" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -2122,17 +2212,17 @@
       <c r="C40" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="46"/>
       <c r="C41" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="41"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" s="15" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -2141,40 +2231,40 @@
       <c r="C42" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="41"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="41"/>
+      <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="D44" s="41"/>
+      <c r="A44" s="26"/>
+      <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+      <c r="A45" s="24">
         <v>42053</v>
       </c>
-      <c r="D45" s="38"/>
+      <c r="D45" s="34"/>
     </row>
     <row r="46" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
@@ -2183,34 +2273,34 @@
       <c r="C47" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="33" t="s">
-        <v>139</v>
+      <c r="D47" s="29" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -2219,29 +2309,29 @@
       <c r="C50" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="28" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="38" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
+      <c r="A52" s="24">
         <v>42056</v>
       </c>
-      <c r="D52" s="38"/>
+      <c r="D52" s="34"/>
     </row>
     <row r="53" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="44" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -2250,12 +2340,12 @@
       <c r="C53" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="38" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="14" t="s">
         <v>90</v>
       </c>
@@ -2264,7 +2354,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+      <c r="A55" s="44"/>
       <c r="B55" t="s">
         <v>88</v>
       </c>
@@ -2273,7 +2363,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -2284,7 +2374,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="285" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="41" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -2295,7 +2385,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -2306,7 +2396,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="10" t="s">
         <v>86</v>
       </c>
@@ -2314,36 +2404,42 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+    <row r="60" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>134</v>
+      <c r="D61" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
+      <c r="A62" s="24">
         <v>42057</v>
       </c>
-      <c r="D62" s="38"/>
+      <c r="D62" s="34"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="28" t="s">
         <v>93</v>
       </c>
       <c r="B63" t="s">
@@ -2352,24 +2448,24 @@
       <c r="C63" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
+      <c r="D63" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>135</v>
+      <c r="B64" s="51" t="s">
+        <v>134</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="39"/>
+        <v>145</v>
+      </c>
+      <c r="D64" s="35"/>
     </row>
     <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="28" t="s">
         <v>96</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -2377,35 +2473,38 @@
       </c>
     </row>
     <row r="66" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
+      <c r="A66" s="24">
         <v>42058</v>
       </c>
-      <c r="D66" s="38"/>
+      <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="42" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>137</v>
+      <c r="B68" s="51" t="s">
+        <v>135</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B69" t="s">
@@ -2416,7 +2515,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="44" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="14" t="s">
@@ -2425,24 +2524,24 @@
       <c r="C70" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
+      <c r="A71" s="44"/>
       <c r="B71" t="s">
         <v>77</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B72" s="14" t="s">
@@ -2451,47 +2550,47 @@
       <c r="C72" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+      <c r="D72" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="33" t="s">
+      <c r="C73" s="19"/>
+      <c r="D73" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28">
+      <c r="A74" s="24">
         <v>42059</v>
       </c>
-      <c r="D74" s="38"/>
+      <c r="D74" s="34"/>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D75" s="33" t="s">
-        <v>138</v>
+      <c r="D75" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28">
+      <c r="A76" s="24">
         <v>42060</v>
       </c>
-      <c r="D76" s="38"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -2500,12 +2599,12 @@
       <c r="C77" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="33" t="s">
-        <v>138</v>
+      <c r="D77" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="28" t="s">
         <v>112</v>
       </c>
       <c r="B78" t="s">
@@ -2514,93 +2613,93 @@
       <c r="C78" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D78" s="33" t="s">
-        <v>138</v>
+      <c r="D78" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="28">
+      <c r="A79" s="24">
         <v>42061</v>
       </c>
-      <c r="D79" s="38"/>
+      <c r="D79" s="34"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="28" t="s">
         <v>120</v>
       </c>
       <c r="B80" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="43"/>
+      <c r="D81" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="49"/>
-    </row>
-    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="49"/>
+      <c r="C82" s="43"/>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="42" t="s">
         <v>123</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="49"/>
+        <v>143</v>
+      </c>
+      <c r="C83" s="43"/>
     </row>
     <row r="84" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28">
+      <c r="A84" s="24">
         <v>42064</v>
       </c>
-      <c r="D84" s="38"/>
-    </row>
-    <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="43" t="s">
+      <c r="D84" s="34"/>
+    </row>
+    <row r="85" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A85" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C85" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="29" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
@@ -2608,6 +2707,12 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1"/>
@@ -2616,8 +2721,12 @@
     <hyperlink ref="B72" r:id="rId4"/>
     <hyperlink ref="B60" r:id="rId5"/>
     <hyperlink ref="B67" r:id="rId6"/>
+    <hyperlink ref="B64" r:id="rId7"/>
+    <hyperlink ref="B68" r:id="rId8"/>
+    <hyperlink ref="B85" r:id="rId9"/>
+    <hyperlink ref="B86" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>